--- a/storage/pa_template/currency_template.xlsx
+++ b/storage/pa_template/currency_template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/code/pa_tool/storage/pa_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/code/backup_pa_tool/storage/pa_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B5A2FA-BF5B-6A4D-98A2-2386F4F427F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF046E-08AE-F040-9B38-9D7B22BE4273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29560" windowHeight="18700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="offer details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Action</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Game</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -439,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,9 +495,6 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/storage/pa_template/currency_template.xlsx
+++ b/storage/pa_template/currency_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/code/backup_pa_tool/storage/pa_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF046E-08AE-F040-9B38-9D7B22BE4273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2C2FEC-1EC4-2D44-9528-8D34865CBB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29560" windowHeight="18700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="8340" windowWidth="32720" windowHeight="11180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="offer details" sheetId="1" r:id="rId1"/>
@@ -25,73 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Faction</t>
+  </si>
+  <si>
+    <t>Currency Per Unit</t>
+  </si>
+  <si>
+    <t>Price Per Unit</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
   <si>
     <t>Game</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Faction</t>
-  </si>
-  <si>
-    <t>Currency Per Unit</t>
-  </si>
-  <si>
-    <t>Total Units</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock(Total units)</t>
   </si>
   <si>
     <t>Minimum Units Per Order</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price Currency</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price Per Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Value For Discount</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>% Discount</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Duration</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Delivery Guarantee</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delivery Method</t>
-  </si>
-  <si>
-    <t>Delivery Character Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Delivery Instruction</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,16 +87,50 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,12 +138,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,65 +488,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
